--- a/resources/import/medical_template.xlsx
+++ b/resources/import/medical_template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Policy:</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Birth date (Fill data below)</t>
+  </si>
+  <si>
+    <t>Relation</t>
   </si>
   <si>
     <t>Premium</t>
@@ -330,7 +333,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="34.38"/>
     <col customWidth="1" min="2" max="2" width="41.13"/>
-    <col customWidth="1" min="3" max="3" width="30.75"/>
+    <col customWidth="1" min="3" max="4" width="30.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -368,6 +371,9 @@
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="2"/>
